--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>160.7578727135243</v>
+        <v>215.566378598967</v>
       </c>
       <c r="R2">
-        <v>160.7578727135243</v>
+        <v>862.2655143958681</v>
       </c>
       <c r="S2">
-        <v>0.0690111616947819</v>
+        <v>0.07204917716499754</v>
       </c>
       <c r="T2">
-        <v>0.0690111616947819</v>
+        <v>0.04460137490042734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>76.85371095373195</v>
+        <v>110.236110615702</v>
       </c>
       <c r="R3">
-        <v>76.85371095373195</v>
+        <v>661.4166636942122</v>
       </c>
       <c r="S3">
-        <v>0.03299224967304402</v>
+        <v>0.03684443332652915</v>
       </c>
       <c r="T3">
-        <v>0.03299224967304402</v>
+        <v>0.03421230710297417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>68.1580134565948</v>
+        <v>92.84139032784201</v>
       </c>
       <c r="R4">
-        <v>68.1580134565948</v>
+        <v>557.0483419670521</v>
       </c>
       <c r="S4">
-        <v>0.02925930536434918</v>
+        <v>0.03103056155347703</v>
       </c>
       <c r="T4">
-        <v>0.02925930536434918</v>
+        <v>0.02881377200286302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>73.30827522841115</v>
+        <v>98.30318917744302</v>
       </c>
       <c r="R5">
-        <v>73.30827522841115</v>
+        <v>589.819135064658</v>
       </c>
       <c r="S5">
-        <v>0.03147024248304726</v>
+        <v>0.03285606938782522</v>
       </c>
       <c r="T5">
-        <v>0.03147024248304726</v>
+        <v>0.03050886754400237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>106.6920736957252</v>
+        <v>145.856715728926</v>
       </c>
       <c r="R6">
-        <v>106.6920736957252</v>
+        <v>875.1402943735561</v>
       </c>
       <c r="S6">
-        <v>0.04580145174282247</v>
+        <v>0.04874997864026107</v>
       </c>
       <c r="T6">
-        <v>0.04580145174282247</v>
+        <v>0.04526733321484248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>104.1896531743395</v>
+        <v>144.2377542457125</v>
       </c>
       <c r="R7">
-        <v>104.1896531743395</v>
+        <v>576.95101698285</v>
       </c>
       <c r="S7">
-        <v>0.0447271967510471</v>
+        <v>0.04820886994100348</v>
       </c>
       <c r="T7">
-        <v>0.0447271967510471</v>
+        <v>0.02984325382149161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N8">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O8">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P8">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q8">
-        <v>90.38320537005424</v>
+        <v>99.98025495394201</v>
       </c>
       <c r="R8">
-        <v>90.38320537005424</v>
+        <v>599.881529723652</v>
       </c>
       <c r="S8">
-        <v>0.03880027705642031</v>
+        <v>0.03341659839997289</v>
       </c>
       <c r="T8">
-        <v>0.03880027705642031</v>
+        <v>0.0310293529734774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P9">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q9">
-        <v>43.20960848343921</v>
+        <v>51.12779885305201</v>
       </c>
       <c r="R9">
-        <v>43.20960848343921</v>
+        <v>460.1501896774681</v>
       </c>
       <c r="S9">
-        <v>0.01854929545586091</v>
+        <v>0.01708854535462125</v>
       </c>
       <c r="T9">
-        <v>0.01854929545586091</v>
+        <v>0.02380163740479269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N10">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O10">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P10">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q10">
-        <v>38.32060989535642</v>
+        <v>43.06008170469201</v>
       </c>
       <c r="R10">
-        <v>38.32060989535642</v>
+        <v>387.540735342228</v>
       </c>
       <c r="S10">
-        <v>0.01645051505778367</v>
+        <v>0.01439205629210069</v>
       </c>
       <c r="T10">
-        <v>0.01645051505778367</v>
+        <v>0.0200458551775625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N11">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O11">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P11">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q11">
-        <v>41.21625139380514</v>
+        <v>45.59327841671801</v>
       </c>
       <c r="R11">
-        <v>41.21625139380514</v>
+        <v>410.339505750462</v>
       </c>
       <c r="S11">
-        <v>0.01769357445068612</v>
+        <v>0.01523873164047724</v>
       </c>
       <c r="T11">
-        <v>0.01769357445068612</v>
+        <v>0.02122513985179519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N12">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O12">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P12">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q12">
-        <v>59.98568807502284</v>
+        <v>67.64872945447601</v>
       </c>
       <c r="R12">
-        <v>59.98568807502284</v>
+        <v>608.8385650902841</v>
       </c>
       <c r="S12">
-        <v>0.02575103756501679</v>
+        <v>0.02261036867219462</v>
       </c>
       <c r="T12">
-        <v>0.02575103756501679</v>
+        <v>0.03149266280752944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N13">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O13">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P13">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q13">
-        <v>58.57874741271574</v>
+        <v>66.89785084852501</v>
       </c>
       <c r="R13">
-        <v>58.57874741271574</v>
+        <v>401.38710509115</v>
       </c>
       <c r="S13">
-        <v>0.02514705713219242</v>
+        <v>0.02235940103029618</v>
       </c>
       <c r="T13">
-        <v>0.02514705713219242</v>
+        <v>0.02076206975169433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N14">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O14">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P14">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q14">
-        <v>229.1980924083987</v>
+        <v>0.6869182970723332</v>
       </c>
       <c r="R14">
-        <v>229.1980924083987</v>
+        <v>4.121509782434</v>
       </c>
       <c r="S14">
-        <v>0.09839161434736308</v>
+        <v>0.0002295900613319489</v>
       </c>
       <c r="T14">
-        <v>0.09839161434736308</v>
+        <v>0.0002131883971851889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P15">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q15">
-        <v>109.5730096932287</v>
+        <v>0.351275564734</v>
       </c>
       <c r="R15">
-        <v>109.5730096932287</v>
+        <v>3.161480082606</v>
       </c>
       <c r="S15">
-        <v>0.04703819826478176</v>
+        <v>0.0001174075269146624</v>
       </c>
       <c r="T15">
-        <v>0.04703819826478176</v>
+        <v>0.0001635300914282047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N16">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O16">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P16">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q16">
-        <v>97.17525122042292</v>
+        <v>0.2958459948917778</v>
       </c>
       <c r="R16">
-        <v>97.17525122042292</v>
+        <v>2.662613954026</v>
       </c>
       <c r="S16">
-        <v>0.04171600968279968</v>
+        <v>9.88811921323189E-05</v>
       </c>
       <c r="T16">
-        <v>0.04171600968279968</v>
+        <v>0.0001377258410500476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N17">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O17">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P17">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q17">
-        <v>104.5181586225865</v>
+        <v>0.3132504231198889</v>
       </c>
       <c r="R17">
-        <v>104.5181586225865</v>
+        <v>2.819253808079</v>
       </c>
       <c r="S17">
-        <v>0.04486821965850366</v>
+        <v>0.000104698308609446</v>
       </c>
       <c r="T17">
-        <v>0.04486821965850366</v>
+        <v>0.0001458281630591342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N18">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O18">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P18">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q18">
-        <v>152.1146016265944</v>
+        <v>0.4647832720308889</v>
       </c>
       <c r="R18">
-        <v>152.1146016265944</v>
+        <v>4.183049448278</v>
       </c>
       <c r="S18">
-        <v>0.06530072332878718</v>
+        <v>0.0001553454324720062</v>
       </c>
       <c r="T18">
-        <v>0.06530072332878718</v>
+        <v>0.000216371585729472</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N19">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O19">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P19">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q19">
-        <v>148.5468136220384</v>
+        <v>0.4596243308624999</v>
       </c>
       <c r="R19">
-        <v>148.5468136220384</v>
+        <v>2.757745985175</v>
       </c>
       <c r="S19">
-        <v>0.06376912061024487</v>
+        <v>0.0001536211493595801</v>
       </c>
       <c r="T19">
-        <v>0.06376912061024487</v>
+        <v>0.0001426466216164471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N20">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O20">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P20">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q20">
-        <v>154.4110949259786</v>
+        <v>19.08336962271667</v>
       </c>
       <c r="R20">
-        <v>154.4110949259786</v>
+        <v>114.5002177363</v>
       </c>
       <c r="S20">
-        <v>0.06628657657341931</v>
+        <v>0.006378272380824948</v>
       </c>
       <c r="T20">
-        <v>0.06628657657341931</v>
+        <v>0.005922615542632848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H21">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I21">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J21">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P21">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q21">
-        <v>73.81949920821553</v>
+        <v>9.758833721300002</v>
       </c>
       <c r="R21">
-        <v>73.81949920821553</v>
+        <v>87.82950349170002</v>
       </c>
       <c r="S21">
-        <v>0.03168970396345264</v>
+        <v>0.003261714300158797</v>
       </c>
       <c r="T21">
-        <v>0.03168970396345264</v>
+        <v>0.004543051469820532</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H22">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I22">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J22">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N22">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O22">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P22">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q22">
-        <v>65.46711093003276</v>
+        <v>8.218937384522222</v>
       </c>
       <c r="R22">
-        <v>65.46711093003276</v>
+        <v>73.97043646070001</v>
       </c>
       <c r="S22">
-        <v>0.02810413761902577</v>
+        <v>0.002747031701205657</v>
       </c>
       <c r="T22">
-        <v>0.02810413761902577</v>
+        <v>0.003826180118595417</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H23">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I23">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J23">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N23">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O23">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P23">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q23">
-        <v>70.4140385418378</v>
+        <v>8.702452146561111</v>
       </c>
       <c r="R23">
-        <v>70.4140385418378</v>
+        <v>78.32206931905</v>
       </c>
       <c r="S23">
-        <v>0.03022778615671843</v>
+        <v>0.002908637796638753</v>
       </c>
       <c r="T23">
-        <v>0.03022778615671843</v>
+        <v>0.004051271816342684</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H24">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I24">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J24">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N24">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O24">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P24">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q24">
-        <v>102.4798328143973</v>
+        <v>12.91220660801111</v>
       </c>
       <c r="R24">
-        <v>102.4798328143973</v>
+        <v>116.2098594721</v>
       </c>
       <c r="S24">
-        <v>0.04399319419591703</v>
+        <v>0.004315672358268687</v>
       </c>
       <c r="T24">
-        <v>0.04399319419591703</v>
+        <v>0.006011048131818859</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.0437125</v>
+      </c>
+      <c r="N25">
+        <v>64.087425</v>
+      </c>
+      <c r="O25">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P25">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q25">
+        <v>12.768885369375</v>
+      </c>
+      <c r="R25">
+        <v>76.61331221625001</v>
+      </c>
+      <c r="S25">
+        <v>0.004267769817152984</v>
+      </c>
+      <c r="T25">
+        <v>0.003962884985507697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.890007</v>
+      </c>
+      <c r="N26">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P26">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q26">
+        <v>303.6707898003706</v>
+      </c>
+      <c r="R26">
+        <v>1822.024738802224</v>
+      </c>
+      <c r="S26">
+        <v>0.1014964888140792</v>
+      </c>
+      <c r="T26">
+        <v>0.09424569009942142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.489942</v>
+      </c>
+      <c r="N27">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O27">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P27">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q27">
+        <v>155.290852835024</v>
+      </c>
+      <c r="R27">
+        <v>1397.617675515216</v>
+      </c>
+      <c r="S27">
+        <v>0.05190316894838729</v>
+      </c>
+      <c r="T27">
+        <v>0.07229289455788153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N28">
+        <v>61.876646</v>
+      </c>
+      <c r="O28">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P28">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q28">
+        <v>130.7867140982596</v>
+      </c>
+      <c r="R28">
+        <v>1177.080426884336</v>
+      </c>
+      <c r="S28">
+        <v>0.0437131021828955</v>
+      </c>
+      <c r="T28">
+        <v>0.06088542859586139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N29">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P29">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q29">
+        <v>138.4808117639938</v>
+      </c>
+      <c r="R29">
+        <v>1246.327305875944</v>
+      </c>
+      <c r="S29">
+        <v>0.04628471566662239</v>
+      </c>
+      <c r="T29">
+        <v>0.06446727891809438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N30">
+        <v>97.210138</v>
+      </c>
+      <c r="O30">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P30">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q30">
+        <v>205.4700011706898</v>
+      </c>
+      <c r="R30">
+        <v>1849.230010536208</v>
+      </c>
+      <c r="S30">
+        <v>0.06867464496390727</v>
+      </c>
+      <c r="T30">
+        <v>0.0956529045868587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>32.0437125</v>
+      </c>
+      <c r="N31">
+        <v>64.087425</v>
+      </c>
+      <c r="O31">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P31">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q31">
+        <v>203.1893518623</v>
+      </c>
+      <c r="R31">
+        <v>1219.1361111738</v>
+      </c>
+      <c r="S31">
+        <v>0.06791237903385192</v>
+      </c>
+      <c r="T31">
+        <v>0.06306079257641278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.890007</v>
+      </c>
+      <c r="N32">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P32">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q32">
+        <v>160.1785444880225</v>
+      </c>
+      <c r="R32">
+        <v>640.7141779520899</v>
+      </c>
+      <c r="S32">
+        <v>0.053536791798683</v>
+      </c>
+      <c r="T32">
+        <v>0.03314145443342018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>24.489942</v>
+      </c>
+      <c r="N33">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O33">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P33">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q33">
+        <v>81.911937581385</v>
+      </c>
+      <c r="R33">
+        <v>491.4716254883101</v>
+      </c>
+      <c r="S33">
+        <v>0.02737758894075381</v>
+      </c>
+      <c r="T33">
+        <v>0.02542176377850926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N34">
+        <v>61.876646</v>
+      </c>
+      <c r="O34">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P34">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q34">
+        <v>68.98663357250166</v>
+      </c>
+      <c r="R34">
+        <v>413.91980143501</v>
+      </c>
+      <c r="S34">
+        <v>0.02305753901228157</v>
+      </c>
+      <c r="T34">
+        <v>0.0214103335159449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="N25">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="O25">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="P25">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="Q25">
-        <v>100.0762087420572</v>
-      </c>
-      <c r="R25">
-        <v>100.0762087420572</v>
-      </c>
-      <c r="S25">
-        <v>0.04296135117193443</v>
-      </c>
-      <c r="T25">
-        <v>0.04296135117193443</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N35">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P35">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q35">
+        <v>73.04507253548583</v>
+      </c>
+      <c r="R35">
+        <v>438.2704352129149</v>
+      </c>
+      <c r="S35">
+        <v>0.0244139990955182</v>
+      </c>
+      <c r="T35">
+        <v>0.02266988956690478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N36">
+        <v>97.210138</v>
+      </c>
+      <c r="O36">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P36">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q36">
+        <v>108.3801499153383</v>
+      </c>
+      <c r="R36">
+        <v>650.28089949203</v>
+      </c>
+      <c r="S36">
+        <v>0.03622411191007791</v>
+      </c>
+      <c r="T36">
+        <v>0.03363630077349423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>32.0437125</v>
+      </c>
+      <c r="N37">
+        <v>64.087425</v>
+      </c>
+      <c r="O37">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P37">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q37">
+        <v>107.1771659637187</v>
+      </c>
+      <c r="R37">
+        <v>428.7086638548749</v>
+      </c>
+      <c r="S37">
+        <v>0.03582203620411573</v>
+      </c>
+      <c r="T37">
+        <v>0.02217529927895744</v>
       </c>
     </row>
   </sheetData>
